--- a/data/trans_orig/P33B_R5-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2014</v>
+        <v>1490</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9859</v>
+        <v>9204</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0141780035689929</v>
+        <v>0.01417800356899291</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006315187984239007</v>
+        <v>0.004674660474112769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03092247811886149</v>
+        <v>0.02886525917636648</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -762,19 +762,19 @@
         <v>7978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4844</v>
+        <v>4838</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12584</v>
+        <v>12659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0252422894897263</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01532482427333933</v>
+        <v>0.01530749326403716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03981633134294496</v>
+        <v>0.04005206530184955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -783,19 +783,19 @@
         <v>12499</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8085</v>
+        <v>7921</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18168</v>
+        <v>19152</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01968588306671961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01273425907045877</v>
+        <v>0.012475655602188</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02861470236219347</v>
+        <v>0.03016565069301785</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>314324</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>308986</v>
+        <v>309641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>316831</v>
+        <v>317355</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9858219964310069</v>
+        <v>0.9858219964310072</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9690775218811377</v>
+        <v>0.9711347408236336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9936848120157609</v>
+        <v>0.9953253395258873</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>522</v>
@@ -833,19 +833,19 @@
         <v>308083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303477</v>
+        <v>303402</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311217</v>
+        <v>311223</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9747577105102737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9601836686570551</v>
+        <v>0.9599479346981505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846751757266607</v>
+        <v>0.9846925067359631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>847</v>
@@ -854,19 +854,19 @@
         <v>622407</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>616738</v>
+        <v>615754</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>626821</v>
+        <v>626985</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9803141169332806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9713852976378067</v>
+        <v>0.9698343493069821</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9872657409295413</v>
+        <v>0.9875243443978123</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>23856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15008</v>
+        <v>15131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35976</v>
+        <v>35765</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0450395069566343</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02833556712052211</v>
+        <v>0.02856817996919418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06792252733105207</v>
+        <v>0.06752537681257895</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>98</v>
@@ -979,19 +979,19 @@
         <v>66770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55286</v>
+        <v>54428</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80445</v>
+        <v>81066</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1223116426673095</v>
+        <v>0.1223116426673096</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1012746575948843</v>
+        <v>0.09970439334955686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1473626176969317</v>
+        <v>0.1484997934041245</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -1000,19 +1000,19 @@
         <v>90625</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75653</v>
+        <v>75513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>107162</v>
+        <v>108572</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08425889990251793</v>
+        <v>0.08425889990251795</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07033845067802016</v>
+        <v>0.07020811632882062</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09963370112855953</v>
+        <v>0.1009444578002153</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>505804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>493684</v>
+        <v>493895</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>514652</v>
+        <v>514529</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9549604930433656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9320774726689477</v>
+        <v>0.932474623187421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9716644328794779</v>
+        <v>0.9714318200308056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>618</v>
@@ -1050,19 +1050,19 @@
         <v>479128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>465453</v>
+        <v>464832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>490612</v>
+        <v>491470</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8776883573326905</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8526373823030687</v>
+        <v>0.8515002065958761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8987253424051159</v>
+        <v>0.9002956066504436</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>978</v>
@@ -1071,19 +1071,19 @@
         <v>984933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>968396</v>
+        <v>966986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>999905</v>
+        <v>1000045</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.915741100097482</v>
+        <v>0.9157411000974819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9003662988714404</v>
+        <v>0.8990555421997847</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9296615493219796</v>
+        <v>0.9297918836711793</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>7036</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3657</v>
+        <v>3534</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12443</v>
+        <v>12841</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02226653071389369</v>
+        <v>0.02226653071389368</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01157182182158316</v>
+        <v>0.01118408009204086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03937822641994893</v>
+        <v>0.04063732516732062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1196,19 +1196,19 @@
         <v>27117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19952</v>
+        <v>20696</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36047</v>
+        <v>36233</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07608903545549969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05598630300968777</v>
+        <v>0.05807286251857834</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1011466989481241</v>
+        <v>0.1016685087723575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1217,19 +1217,19 @@
         <v>34153</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25745</v>
+        <v>26482</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43396</v>
+        <v>43962</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05079427635758586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03828969385833045</v>
+        <v>0.03938563465641638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06454150884561612</v>
+        <v>0.06538273710875467</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>308957</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303550</v>
+        <v>303152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312336</v>
+        <v>312459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9777334692861063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9606217735800512</v>
+        <v>0.9593626748326793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9884281781784169</v>
+        <v>0.9888159199079591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -1267,19 +1267,19 @@
         <v>329264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320334</v>
+        <v>320148</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336429</v>
+        <v>335685</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9239109645445004</v>
+        <v>0.9239109645445002</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8988533010518759</v>
+        <v>0.8983314912276427</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9440136969903122</v>
+        <v>0.9419271374814217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>839</v>
@@ -1288,19 +1288,19 @@
         <v>638222</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628979</v>
+        <v>628413</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646630</v>
+        <v>645893</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9492057236424143</v>
+        <v>0.9492057236424141</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9354584911543841</v>
+        <v>0.9346172628912452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9617103061416696</v>
+        <v>0.9606143653435836</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>25300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16862</v>
+        <v>16389</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37427</v>
+        <v>39120</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06780131335238065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.045189196354951</v>
+        <v>0.04392252393192234</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1003001534311454</v>
+        <v>0.1048380684810189</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -1413,19 +1413,19 @@
         <v>39588</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31792</v>
+        <v>30883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49686</v>
+        <v>49664</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09381887608044545</v>
+        <v>0.09381887608044547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07534260542964687</v>
+        <v>0.07318955971791595</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1177507305900438</v>
+        <v>0.1176986432459051</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -1434,19 +1434,19 @@
         <v>64888</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52123</v>
+        <v>51706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81288</v>
+        <v>79563</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08160877881920688</v>
+        <v>0.08160877881920686</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06555435115232976</v>
+        <v>0.06503025741716986</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1022355957478064</v>
+        <v>0.1000662269472883</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>347845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335718</v>
+        <v>334025</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>356283</v>
+        <v>356756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9321986866476194</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8996998465688548</v>
+        <v>0.8951619315189812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.954810803645049</v>
+        <v>0.9560774760680777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>527</v>
@@ -1484,19 +1484,19 @@
         <v>382373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372275</v>
+        <v>372297</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390169</v>
+        <v>391078</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9061811239195546</v>
+        <v>0.9061811239195547</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8822492694099561</v>
+        <v>0.8823013567540949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9246573945703529</v>
+        <v>0.926810440282084</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>792</v>
@@ -1505,19 +1505,19 @@
         <v>730219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>713819</v>
+        <v>715544</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>742984</v>
+        <v>743401</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9183912211807931</v>
+        <v>0.918391221180793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8977644042521935</v>
+        <v>0.8999337730527123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9344456488476706</v>
+        <v>0.9349697425828306</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>9515</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5534</v>
+        <v>5429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14844</v>
+        <v>15020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04626386816799564</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02691013419814449</v>
+        <v>0.02639856897031465</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07217626193748225</v>
+        <v>0.0730324047609017</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1630,19 +1630,19 @@
         <v>17315</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12925</v>
+        <v>13004</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22984</v>
+        <v>23611</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07633664467358818</v>
+        <v>0.07633664467358817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05698310351031781</v>
+        <v>0.05733310239649324</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1013283946710169</v>
+        <v>0.104096365910543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -1651,19 +1651,19 @@
         <v>26830</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20326</v>
+        <v>20027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34539</v>
+        <v>34141</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06203588132418306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04699887218016274</v>
+        <v>0.04630573620813151</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07986013717741565</v>
+        <v>0.07894136597896667</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>196150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>190821</v>
+        <v>190645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>200131</v>
+        <v>200236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9537361318320043</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9278237380625176</v>
+        <v>0.9269675952390982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9730898658018554</v>
+        <v>0.9736014310296852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>448</v>
@@ -1701,19 +1701,19 @@
         <v>209508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203839</v>
+        <v>203212</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>213898</v>
+        <v>213819</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9236633553264118</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.898671605328983</v>
+        <v>0.8959036340894567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9430168964896822</v>
+        <v>0.9426668976035067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>711</v>
@@ -1722,19 +1722,19 @@
         <v>405658</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397949</v>
+        <v>398347</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>412162</v>
+        <v>412461</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.937964118675817</v>
+        <v>0.9379641186758169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9201398628225844</v>
+        <v>0.9210586340210332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9530011278198374</v>
+        <v>0.9536942637918686</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>16249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10993</v>
+        <v>11106</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22866</v>
+        <v>23687</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06002545337610268</v>
+        <v>0.06002545337610267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04060866201320139</v>
+        <v>0.04102699524810272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08446893679336662</v>
+        <v>0.08749937208910311</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>99</v>
@@ -1847,19 +1847,19 @@
         <v>43803</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35455</v>
+        <v>36299</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52750</v>
+        <v>54673</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1660766315091805</v>
+        <v>0.1660766315091804</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1344276622454825</v>
+        <v>0.1376258594792363</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1999992385953632</v>
+        <v>0.2072913998423352</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -1868,19 +1868,19 @@
         <v>60052</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50434</v>
+        <v>50267</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71864</v>
+        <v>70890</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1123608423744213</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09436417940322778</v>
+        <v>0.09405203020131077</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1344622347067622</v>
+        <v>0.1326390523194039</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>254458</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>247841</v>
+        <v>247020</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259714</v>
+        <v>259601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9399745466238973</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9155310632066336</v>
+        <v>0.9125006279108975</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9593913379867985</v>
+        <v>0.9589730047518975</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>361</v>
@@ -1918,19 +1918,19 @@
         <v>219947</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211000</v>
+        <v>209077</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228295</v>
+        <v>227451</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8339233684908196</v>
+        <v>0.8339233684908195</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8000007614046367</v>
+        <v>0.7927086001576648</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8655723377545175</v>
+        <v>0.8623741405207638</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>701</v>
@@ -1939,19 +1939,19 @@
         <v>474405</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>462593</v>
+        <v>463567</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>484023</v>
+        <v>484190</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8876391576255787</v>
+        <v>0.8876391576255788</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8655377652932379</v>
+        <v>0.867360947680596</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9056358205967725</v>
+        <v>0.9059479697986893</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>44513</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32389</v>
+        <v>31919</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62999</v>
+        <v>63458</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06194306884202709</v>
+        <v>0.06194306884202708</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04507197661227622</v>
+        <v>0.04441866476233778</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08766849068379849</v>
+        <v>0.08830723426398122</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -2064,19 +2064,19 @@
         <v>89722</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73900</v>
+        <v>74190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105956</v>
+        <v>108245</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1163129671930297</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09580193267301916</v>
+        <v>0.09617701415574716</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1373577040952345</v>
+        <v>0.1403251293544288</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -2085,19 +2085,19 @@
         <v>134235</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114367</v>
+        <v>113665</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>161018</v>
+        <v>159747</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09009104208170497</v>
+        <v>0.09009104208170499</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0767567320058626</v>
+        <v>0.07628565478212808</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1080660567832597</v>
+        <v>0.1072131887473298</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>674092</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>655606</v>
+        <v>655147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>686216</v>
+        <v>686686</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.938056931157973</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.912331509316202</v>
+        <v>0.9116927657360188</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9549280233877239</v>
+        <v>0.9555813352376623</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>845</v>
@@ -2135,19 +2135,19 @@
         <v>681666</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>665432</v>
+        <v>663143</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>697488</v>
+        <v>697198</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8836870328069701</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8626422959047656</v>
+        <v>0.859674870645571</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9041980673269809</v>
+        <v>0.9038229858442527</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1405</v>
@@ -2156,19 +2156,19 @@
         <v>1355758</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1328975</v>
+        <v>1330246</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1375626</v>
+        <v>1376328</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9099089579182952</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8919339432167404</v>
+        <v>0.8927868112526699</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9232432679941375</v>
+        <v>0.9237143452178719</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>106588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>90100</v>
+        <v>89336</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>126119</v>
+        <v>125567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.133556291376042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1128973080520532</v>
+        <v>0.1119394100895602</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1580298108261447</v>
+        <v>0.1573375593380175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>275</v>
@@ -2281,19 +2281,19 @@
         <v>181944</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>164800</v>
+        <v>162522</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>203530</v>
+        <v>202661</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2190484365054987</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1984088709899675</v>
+        <v>0.1956660448079273</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2450374193335518</v>
+        <v>0.2439911286496654</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>407</v>
@@ -2302,19 +2302,19 @@
         <v>288531</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>264195</v>
+        <v>261380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>315664</v>
+        <v>313362</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1771563199195977</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1622138569651203</v>
+        <v>0.1604857427784401</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.19381601118614</v>
+        <v>0.1924023561237763</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>691484</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>671953</v>
+        <v>672505</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>707972</v>
+        <v>708736</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8664437086239579</v>
+        <v>0.866443708623958</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8419701891738551</v>
+        <v>0.8426624406619825</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8871026919479462</v>
+        <v>0.88806058991044</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>786</v>
@@ -2352,19 +2352,19 @@
         <v>648665</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>627079</v>
+        <v>627948</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>665809</v>
+        <v>668087</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7809515634945013</v>
+        <v>0.7809515634945015</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7549625806664483</v>
+        <v>0.7560088713503343</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8015911290100325</v>
+        <v>0.8043339551920727</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1416</v>
@@ -2373,19 +2373,19 @@
         <v>1340150</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1313017</v>
+        <v>1315319</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1364486</v>
+        <v>1367301</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8228436800804023</v>
+        <v>0.8228436800804022</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8061839888138603</v>
+        <v>0.8075976438762236</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8377861430348801</v>
+        <v>0.8395142572215601</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>237576</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>209598</v>
+        <v>209445</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>270819</v>
+        <v>268189</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.06728886791613733</v>
+        <v>0.06728886791613735</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.059364567372551</v>
+        <v>0.05932125314776258</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07670424878315606</v>
+        <v>0.07595926641736855</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>763</v>
@@ -2498,19 +2498,19 @@
         <v>474236</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>440352</v>
+        <v>441141</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>508159</v>
+        <v>508935</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1270432282657868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1179660631391724</v>
+        <v>0.1181773772745416</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1361308690695757</v>
+        <v>0.136338579129646</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1045</v>
@@ -2519,19 +2519,19 @@
         <v>711812</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>666690</v>
+        <v>670244</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>756162</v>
+        <v>760570</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0979976729734347</v>
+        <v>0.09799767297343469</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0917854513726757</v>
+        <v>0.09227477570672978</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1041034884735832</v>
+        <v>0.1047102960569844</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3293117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3259874</v>
+        <v>3262504</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3321095</v>
+        <v>3321248</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9327111320838628</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9232957512168443</v>
+        <v>0.9240407335826312</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.940635432627449</v>
+        <v>0.9406787468522375</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4597</v>
@@ -2569,19 +2569,19 @@
         <v>3258637</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3224714</v>
+        <v>3223938</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3292521</v>
+        <v>3291732</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.872956771734213</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8638691309304242</v>
+        <v>0.8636614208703539</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8820339368608274</v>
+        <v>0.8818226227254585</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7689</v>
@@ -2590,19 +2590,19 @@
         <v>6551753</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6507403</v>
+        <v>6502995</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6596875</v>
+        <v>6593321</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9020023270265655</v>
+        <v>0.9020023270265654</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8958965115264169</v>
+        <v>0.8952897039430155</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9082145486273245</v>
+        <v>0.9077252242932702</v>
       </c>
     </row>
     <row r="30">
